--- a/inst/data/archive/Betting.xlsx
+++ b/inst/data/archive/Betting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B171A102-0F6B-41C1-BB6C-81799D741DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EC3438-9A70-4463-8399-11D3F3CFB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,65 +28,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
-  <si>
-    <t>Købsdato</t>
-  </si>
-  <si>
-    <t>Kampdato</t>
-  </si>
-  <si>
-    <t>Turnering</t>
-  </si>
-  <si>
-    <t>Kamp</t>
-  </si>
-  <si>
-    <t>Spil</t>
-  </si>
-  <si>
-    <t>Kupon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="146">
+  <si>
+    <t>BetDay</t>
+  </si>
+  <si>
+    <t>MatchDay</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Bet</t>
   </si>
   <si>
     <t>Odds</t>
   </si>
   <si>
-    <t>Korrekt</t>
-  </si>
-  <si>
-    <t>Indsats</t>
-  </si>
-  <si>
-    <t>Gevinst</t>
-  </si>
-  <si>
-    <t>Spiltype</t>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Stake</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>GameType</t>
+  </si>
+  <si>
+    <t>Champions League</t>
+  </si>
+  <si>
+    <t>Liverpool - Villarreal</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>Kommer der mindst et rødt kort i kampen: Nej</t>
+  </si>
+  <si>
+    <t>Kort</t>
+  </si>
+  <si>
+    <t>Special - LIVE Luis Diaz laver assist</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 1,5: Over</t>
+  </si>
+  <si>
+    <t>Mål</t>
+  </si>
+  <si>
+    <t>Hvem vinder 1. halvleg? Liverpool</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Mål mellem 1 - 15.0 Minutter: Nej</t>
+  </si>
+  <si>
+    <t>Manchester C - Real Madrid</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 3. mål: Manchester C</t>
   </si>
   <si>
     <t>Premier League</t>
   </si>
   <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>4-ling ID 5</t>
+  </si>
+  <si>
     <t>Arsenal - Manchester U</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>Begge hold scorer: nej</t>
   </si>
   <si>
-    <t>Mål</t>
-  </si>
-  <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>I hvilken halvleg scores der flest mål?: 2. halvleg</t>
   </si>
   <si>
-    <t>Mål mellem 1 - 15.0 Minutter: Nej</t>
-  </si>
-  <si>
     <t>Minutmarkeder</t>
   </si>
   <si>
@@ -96,9 +132,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Liverpool - Everton</t>
   </si>
   <si>
@@ -108,7 +141,7 @@
     <t>Newcastle - Crystal P</t>
   </si>
   <si>
-    <t>Trippel ID 1: 1</t>
+    <t>Trippel ID 4: 1</t>
   </si>
   <si>
     <t>Chelsea - Arsenal</t>
@@ -120,10 +153,10 @@
     <t>Everton - Leicester</t>
   </si>
   <si>
-    <t>Trippel ID 1: X</t>
-  </si>
-  <si>
-    <t>Trippel ID 1</t>
+    <t>Trippel ID 4: X</t>
+  </si>
+  <si>
+    <t>Trippel ID 4</t>
   </si>
   <si>
     <t>Trippel</t>
@@ -147,9 +180,6 @@
     <t>Hvilket hold scorer 5. mål?: Ingen mål</t>
   </si>
   <si>
-    <t>Champions League</t>
-  </si>
-  <si>
     <t>Liverpool - Benfica</t>
   </si>
   <si>
@@ -159,16 +189,16 @@
     <t>Manchester C - Atletico Madrid</t>
   </si>
   <si>
-    <t>Double ID 2: 1</t>
+    <t>Double ID 3: 1</t>
   </si>
   <si>
     <t>Benfica - Liverpool</t>
   </si>
   <si>
-    <t>Double ID 2: 2</t>
-  </si>
-  <si>
-    <t>Double ID 2</t>
+    <t>Double ID 3: 2</t>
+  </si>
+  <si>
+    <t>Double ID 3</t>
   </si>
   <si>
     <t>Double</t>
@@ -231,7 +261,7 @@
     <t>1 (Handicap 0 - 1)</t>
   </si>
   <si>
-    <t>13-ling ID 3</t>
+    <t>13-ling ID 2</t>
   </si>
   <si>
     <t>Liverpool - Norwich</t>
@@ -241,6 +271,189 @@
   </si>
   <si>
     <t>Crystal P - Liverpool</t>
+  </si>
+  <si>
+    <t>Leicester - Liverpool</t>
+  </si>
+  <si>
+    <t>Liverpool - Aston Villa</t>
+  </si>
+  <si>
+    <t>Wolverhampton - Liverpool</t>
+  </si>
+  <si>
+    <t>Everton - Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester U - Liverpool</t>
+  </si>
+  <si>
+    <t>4-ling ID 1</t>
+  </si>
+  <si>
+    <t>Wolverhampton - Newcastle</t>
+  </si>
+  <si>
+    <t>4-ling ID 1: X</t>
+  </si>
+  <si>
+    <t>Burnley - Norwich</t>
+  </si>
+  <si>
+    <t>Chelsea - Southampton</t>
+  </si>
+  <si>
+    <t>4-ling ID 1: 1</t>
+  </si>
+  <si>
+    <t>Leeds - Watford</t>
+  </si>
+  <si>
+    <t>Manchester U - Everton</t>
+  </si>
+  <si>
+    <t>Mål mellem 1 - 15 Minutter: Nej</t>
+  </si>
+  <si>
+    <t>Brentford - Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester U - Aston Villa</t>
+  </si>
+  <si>
+    <t>Chelsea - Manchester C</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 1. mål: Ingen mål</t>
+  </si>
+  <si>
+    <t>Liverpool - Milan</t>
+  </si>
+  <si>
+    <t>Young Boys - Manchester U</t>
+  </si>
+  <si>
+    <t>Leeds - Liverpool</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 2,5 Over</t>
+  </si>
+  <si>
+    <t>Manchester U - Newcastle</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 2. mål? Manchester U</t>
+  </si>
+  <si>
+    <t>Begge hold scorer? Nej</t>
+  </si>
+  <si>
+    <t>Wolverhampton - Manchester U</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>Manchester C - Arsenal</t>
+  </si>
+  <si>
+    <t>Manchester C holder målet rent? Ja</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 5. mål: Manchester C</t>
+  </si>
+  <si>
+    <t>Landshold</t>
+  </si>
+  <si>
+    <t>Frankrig - Schweiz</t>
+  </si>
+  <si>
+    <t>Belgien - Portugal</t>
+  </si>
+  <si>
+    <t>Wales - Danmark</t>
+  </si>
+  <si>
+    <t>Rusland - Danmark</t>
+  </si>
+  <si>
+    <t>1. halvleg Hvornår scores det første mål? Ingen mål</t>
+  </si>
+  <si>
+    <t>Mål mellem 16 - 30 Minutter: Nej</t>
+  </si>
+  <si>
+    <t>Vindende hold mellem 1 Og 15 Minutter: Uafgjort</t>
+  </si>
+  <si>
+    <t>England - Skotland</t>
+  </si>
+  <si>
+    <t>Holland - Østrig</t>
+  </si>
+  <si>
+    <t>Danmark - Belgien</t>
+  </si>
+  <si>
+    <t>Italien - Schweiz</t>
+  </si>
+  <si>
+    <t>Frankrig - Tyskland</t>
+  </si>
+  <si>
+    <t>Spanien - Sverige</t>
+  </si>
+  <si>
+    <t>Hjørnespark - O/U 9,5: Over</t>
+  </si>
+  <si>
+    <t>Hjørnespark</t>
+  </si>
+  <si>
+    <t>England - Kroatien</t>
+  </si>
+  <si>
+    <t>Tyrkiet - Italien</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 4. mål: Ingen mål</t>
+  </si>
+  <si>
+    <t>Liverpool - Crystal P</t>
+  </si>
+  <si>
+    <t>Hjørnespark - O/U 12,5: Over</t>
+  </si>
+  <si>
+    <t>Burnley - Liverpool</t>
+  </si>
+  <si>
+    <t>West Bromwich - Liverpool</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 2,5: Over</t>
+  </si>
+  <si>
+    <t>Real Madrid - Liverpool</t>
+  </si>
+  <si>
+    <t>Vindende hold mellem 16 Og 30 Minutter: Uafgjort</t>
+  </si>
+  <si>
+    <t>Manchester U - Brighton</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 3. mål: Ingen mål</t>
+  </si>
+  <si>
+    <t>Pengene tilbage ved uafgjort: Manchester U</t>
+  </si>
+  <si>
+    <t>Halvleg/fuldtid Uafgjort / Liverpool</t>
+  </si>
+  <si>
+    <t>Halvleg/fuldtid</t>
   </si>
   <si>
     <t>Total gevinst</t>
@@ -621,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,12 +889,12 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B2" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -694,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -711,25 +924,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B3" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3">
-        <v>2.0499999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -741,39 +954,39 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B4" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -781,25 +994,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="B5" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -811,767 +1024,760 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B6" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <f>G6 * I6</f>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="B7" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>44677</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>2.35</v>
+        <v>1.58</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="B8" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
       <c r="G8">
-        <v>1.92</v>
+        <v>7.23</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B9" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>1.23</v>
+        <v>2.8</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B10" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B11" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>1.32</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
-      </c>
-      <c r="G11">
-        <v>2.375</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>47.5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="B12" s="1">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G12">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <f>G12 * I12</f>
-        <v>134.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B13" s="1">
-        <v>44670</v>
+        <v>44675</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J13">
         <f>G13 * I13</f>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B14" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>9.35</v>
+        <v>2.35</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="B15" s="1">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B16" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>2.85</v>
+        <v>1.23</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B17" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>102.5</v>
-      </c>
-      <c r="J17">
-        <f>G17 * I17</f>
-        <v>141.44999999999999</v>
-      </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B18" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18">
+        <v>2.375</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>47.5</v>
+      </c>
+      <c r="K18" t="s">
         <v>43</v>
-      </c>
-      <c r="G18">
-        <v>1.25</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="B19" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>101</v>
+      </c>
+      <c r="J19">
+        <f>G19 * I19</f>
+        <v>134.33000000000001</v>
+      </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="B20" s="1">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <f>G20 * I20</f>
-        <v>87.5</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44640</v>
+        <v>44670</v>
       </c>
       <c r="B21" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
+        <v>44670</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
       </c>
       <c r="G21">
-        <v>1.3</v>
+        <v>9.35</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <f>G21 * I21</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44636</v>
+        <v>44667</v>
       </c>
       <c r="B22" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
+        <v>44667</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>1.1000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <f>G22 * I22</f>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44628</v>
+        <v>44664</v>
       </c>
       <c r="B23" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
+        <v>44664</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
       </c>
       <c r="G23">
-        <v>1.62</v>
+        <v>2.85</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44625</v>
+        <v>44664</v>
       </c>
       <c r="B24" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C24" t="s">
+        <v>44664</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <f>G24 * I24</f>
+        <v>141.44999999999999</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44625</v>
+        <v>44656</v>
       </c>
       <c r="B25" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C25" t="s">
+        <v>44656</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-      <c r="J25">
-        <f>G25 * I25</f>
-        <v>70</v>
-      </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44619</v>
+        <v>44656</v>
       </c>
       <c r="B26" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
+        <v>44656</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <f>G26 * I26</f>
-        <v>30</v>
-      </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44619</v>
+        <v>44656</v>
       </c>
       <c r="B27" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C27" t="s">
+        <v>44671</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1.75</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <f>G27 * I27</f>
+        <v>87.5</v>
+      </c>
+      <c r="K27" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27">
-        <v>3.75</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="B28" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" t="s">
-        <v>62</v>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1581,221 +1787,2535 @@
       </c>
       <c r="J28">
         <f>G28 * I28</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44618</v>
+        <v>44636</v>
       </c>
       <c r="B29" s="1">
-        <v>44618</v>
+        <v>44636</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <f>G29 * I29</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44613</v>
+        <v>44628</v>
       </c>
       <c r="B30" s="1">
-        <v>44613</v>
+        <v>44628</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <f>G30 * I30</f>
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44613</v>
+        <v>44625</v>
       </c>
       <c r="B31" s="1">
-        <v>44613</v>
+        <v>44625</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G31">
-        <v>1238046</v>
+        <v>1.42</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="B32" s="1">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
       </c>
       <c r="G32">
-        <v>1.1299999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>95.5</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <f>G32 * I32</f>
-        <v>107.91499999999999</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="B33" s="1">
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G33">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>42.5</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <f>IF(H33 = 1, G33 * I33, 0)</f>
-        <v>95.625</v>
+        <f>G33 * I33</f>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44619</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34">
+        <v>3.75</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44619</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>1.2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <f>G35 * I35</f>
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36">
+        <v>2.1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44613</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>1.42</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <f>G37 * I37</f>
+        <v>127.8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44613</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38">
+        <v>1238046</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>95.5</v>
+      </c>
+      <c r="J39">
+        <f>G39 * I39</f>
+        <v>107.91499999999999</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44608</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>2.25</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>42.5</v>
+      </c>
+      <c r="J40">
+        <f>IF(H40 = 1, G40 * I40, 0)</f>
+        <v>95.625</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
         <v>44584</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B41" s="1">
         <v>44584</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>1.58</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>27.03</v>
+      </c>
+      <c r="J41">
+        <f>IF(H41 = 1, G41 * I41, 0)</f>
+        <v>42.707400000000007</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44558</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42">
+        <v>1.34</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44541</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43">
+        <v>1.7</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44534</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>3.2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45">
+        <v>1.37</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <f>G45 * I45</f>
+        <v>137</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44493</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <f>G46 * I46</f>
+        <v>122.50000000000001</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51">
+        <v>1.18</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52">
+        <v>1.3</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>29</v>
+      </c>
+      <c r="J52">
+        <f>G52 * I52</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>1.4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>1.62</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55">
+        <v>8.5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56">
+        <v>1.45</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>1.43</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>34</v>
+      </c>
+      <c r="J57">
+        <f>G57 * I57</f>
+        <v>48.62</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>1.42</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59">
+        <v>1.35</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <f>G59 * I59</f>
+        <v>67.5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60">
+        <v>1.42</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61">
+        <v>1.28</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62">
+        <v>1.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63">
+        <v>9.5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <f>G64 * I64</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65">
+        <v>1.42</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="J65">
+        <f>G65 * I65</f>
+        <v>71</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>1.58</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67">
+        <v>1.82</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>3.05</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69">
+        <v>1.24</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>50</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J71" si="0">G69 * I69</f>
+        <v>62</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44373</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70">
+        <v>1.92</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71">
+        <v>1.2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>200</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72">
+        <v>1.42</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J74" si="1">G73 * I73</f>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74">
+        <v>1.25</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75">
+        <v>1.65</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76">
+        <v>1.42</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>50</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:J78" si="2">G76 * I76</f>
+        <v>71</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44364</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44364</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78">
+        <v>1.18</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79">
+        <v>1.4</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J80" si="3">G79 * I79</f>
+        <v>140</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80">
+        <v>1.22</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44362</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81">
+        <v>1.77</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82">
+        <v>1.27</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83">
+        <v>3.9</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J82:J84" si="4">G83 * I83</f>
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44358</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84">
+        <v>1.17</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>50</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>58.5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44358</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <f>G85 * I85</f>
+        <v>109.00000000000001</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86">
+        <v>1.18</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86">
+        <f>G86 * I86</f>
+        <v>59</v>
+      </c>
+      <c r="K86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <f>G87 * I87</f>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44335</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <f>G88 * I88</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89">
+        <v>1.27</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>25</v>
+      </c>
+      <c r="J89">
+        <f>G89 * I89</f>
+        <v>31.75</v>
+      </c>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90">
+        <v>1.6</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <f>G90 * I90</f>
         <v>16</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91">
+        <v>3.65</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>1.52</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <f>G92 * I92</f>
+        <v>152</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94">
+        <v>2.15</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>50</v>
       </c>
-      <c r="G34">
-        <v>1.58</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>27.03</v>
-      </c>
-      <c r="J34">
-        <f>IF(H34 = 1, G34 * I34, 0)</f>
-        <v>42.707400000000007</v>
-      </c>
-      <c r="K34" t="s">
-        <v>22</v>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <v>1.33</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <f>G95 * I95</f>
+        <v>59.85</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96">
+        <v>1.6</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97">
+        <v>1.28</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <f>G97 * I97</f>
+        <v>128</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98">
+        <v>1.97</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>14.62</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99">
+        <v>4.8</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99">
+        <f>G99 * I99</f>
+        <v>240</v>
+      </c>
+      <c r="K99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <f>G100 * I100</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1820,34 +4340,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>1426.2273999999998</v>
+        <v>4791.2673999999997</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>1333.53</v>
+        <v>5224.53</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>92.697399999999789</v>
+        <v>-433.26260000000002</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>6.95</v>
+        <v>-8.2899999999999991</v>
       </c>
     </row>
   </sheetData>
